--- a/配置文档/道具货币相关/背包 道具 及货币相关配置.xlsx
+++ b/配置文档/道具货币相关/背包 道具 及货币相关配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="2"/>
+    <workbookView windowHeight="17655" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_bagData_背包配置" sheetId="4" r:id="rId1"/>
@@ -2353,7 +2353,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="14">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G5" s="14">
         <v>99999</v>
@@ -2384,7 +2384,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="14">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G6" s="15">
         <v>99999</v>
@@ -2415,7 +2415,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="14">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G7" s="15">
         <v>99999</v>
@@ -2446,7 +2446,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="14">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G8" s="14">
         <v>99999</v>
